--- a/Dimitar Kolchev ®/Lesson 8/Bug Example D-Kolchev.xlsx
+++ b/Dimitar Kolchev ®/Lesson 8/Bug Example D-Kolchev.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Priority</t>
   </si>
@@ -73,49 +73,100 @@
     <t>PSB001</t>
   </si>
   <si>
-    <t>Login button is disabled when using valid credentials</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>The user cannot login when use valid credentials because the login button is disabled</t>
-  </si>
-  <si>
-    <t>1. Load www.softwareundertest/login
-2. Fill valid credentials
-Expected result:
-Login button is enabled
-Actual result:
-Login button stays disabled</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>New/To do</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Firefox 58.0.2, Chrome 66.0.3359.181</t>
-  </si>
-  <si>
-    <t>Hjusein Tjurkmen</t>
-  </si>
-  <si>
-    <t>Hjusein Tjurkmen created the bug on 5 Jun 2018</t>
+    <t>Shop Now Button redirect to other site</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The button SHOP NOW redirect us to  other site - https://www.prestashop.com/en?utm_source=v16_homeslider </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Load http://automationpractice.com
+2. Click on white button SHOP NOW  on the left side on the screen 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Load page screen where we can shop dreses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual result:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Redirect us to other site - https://www.prestashop.com/en?utm_source=v16_homeslider </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Picture added </t>
+  </si>
+  <si>
+    <t>Chrome browser</t>
+  </si>
+  <si>
+    <t>Dimitar Kolchev</t>
+  </si>
+  <si>
+    <t>Dimitar Kolchev 31.10.2018 19:33ч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New bug hav to be fixed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop Now Button </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,9 +185,18 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -178,6 +238,12 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -187,12 +253,6 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -243,6 +303,50 @@
         <a:xfrm>
           <a:off x="4752975" y="28575"/>
           <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7419975</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>130588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4572000"/>
+          <a:ext cx="10058400" cy="5655088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -544,7 +648,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,24 +660,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -581,71 +685,71 @@
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>3.4</v>
       </c>
     </row>
@@ -653,40 +757,40 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>43256</v>
+      <c r="B16" s="7">
+        <v>43404</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +798,7 @@
     <mergeCell ref="A1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>